--- a/数据整理/stocks/A股/科创板/688626-翔宇医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688626-翔宇医疗.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1733,4 +1734,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688626-翔宇医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688626-翔宇医疗.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.62</v>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4147</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1789,13 +1832,423 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3453</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3414</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>22</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>3.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688626-翔宇医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688626-翔宇医疗.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,893 +453,521 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009774</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>财通资管优选回报一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6523</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002708</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大摩健康产业混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.34</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6316</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+      <c r="D3" t="n">
+        <v>2.62</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>320006</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>71.57</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4457</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>233007</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大摩卓越成长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.28</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3747</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519170</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浦银安盛增长动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.51</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.47</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3628</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010314</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫内需增长混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>70.48</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2934</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011383</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富安达医药创新混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1301</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>400032</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方主题精选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1224</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>233008</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大摩消费领航混合基金</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>79.23</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1213</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>233001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大摩基础行业混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>79.57</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1125</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001007</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国联安鑫安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>83.06</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1006</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003032</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>平安医疗健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.03</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0832</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004206</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华商元亨灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0781</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004076</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国联安锐意成长混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.91</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0612</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009893</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫优悦安和混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0610</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001861</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>富安达健康人生灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.91</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0362</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003284</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中邮医药健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>80.46</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006689</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>方正富邦信泓灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>74.72</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008182</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>方正富邦信泓灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>74.72</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008884</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>博远博锐混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>89.03</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0114</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001448</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华商双翼平衡混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>40.01</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008885</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博远博锐混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.03</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.74</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4147</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3453</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3414</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1737,165 +1365,165 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>233007</t>
+          <t>009774</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大摩卓越成长混合</t>
+          <t>财通资管优选回报一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>20.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4147</t>
+          <t>0.6523</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6316</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001965</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3453</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010314</t>
+          <t>320006</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫内需增长混合</t>
+          <t>诺安灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>12.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.44</t>
+          <t>71.57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3414</t>
+          <t>0.4457</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1903,37 +1531,37 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010322</t>
+          <t>233007</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫新兴产业股票</t>
+          <t>大摩卓越成长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>91.28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1653</t>
+          <t>0.3747</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1941,37 +1569,37 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000309</t>
+          <t>519170</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大摩品质生活精选股票</t>
+          <t>浦银安盛增长动力灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>12.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1327</t>
+          <t>0.3628</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1979,280 +1607,652 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005108</t>
+          <t>010314</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+          <t>摩根士丹利华鑫内需增长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.41</t>
+          <t>70.48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0593</t>
+          <t>0.2934</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009893</t>
+          <t>011383</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优悦安和混合</t>
+          <t>富安达医药创新混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>93.17</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0277</t>
+          <t>0.1301</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010711</t>
+          <t>400032</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华富国潮优选混合</t>
+          <t>东方主题精选混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>90.49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0141</t>
+          <t>0.1224</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001966</t>
+          <t>233008</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
+          <t>大摩消费领航混合基金</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.51</t>
+          <t>79.23</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.1213</t>
         </is>
       </c>
       <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006274</t>
+          <t>233001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>圆信永丰医药健康混合</t>
+          <t>大摩基础行业混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.49</t>
+          <t>79.57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.1125</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>40.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688626-翔宇医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688626-翔宇医疗.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.52</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>2.62</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>22</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>3.74</v>
       </c>
     </row>
@@ -532,6 +549,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -967,7 +1116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1365,7 +1514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688626-翔宇医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688626-翔宇医疗.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.52</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>2.62</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>22</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.74</v>
       </c>
     </row>
@@ -615,26 +632,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0202</t>
+          <t>0.0191</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -653,26 +670,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -681,6 +698,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1116,7 +1265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1514,7 +1663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
